--- a/ejercicio2_normalizacion.xlsx
+++ b/ejercicio2_normalizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.morenoventas\Desktop\SQL\SQL_04052023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FA073B-F649-499D-8421-73D15A0E710E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22984B68-CA2A-4737-98C8-404A80AE86D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3FCA0B04-F99C-4B1D-911E-0273235ADDA9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
   <si>
     <t>DNI</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Aprov</t>
-  </si>
-  <si>
-    <t>(Ya estaría en 2FN al hacer el cambio en 1FN)</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -267,6 +264,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,7 +873,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,295 +1163,339 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD02ECD-AED2-4070-BBC7-7A6556316509}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" activeCellId="1" sqref="A10 B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>15873564</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>125</v>
-      </c>
-      <c r="E2" s="4">
-        <v>36972</v>
-      </c>
-      <c r="F2" s="5">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>15873564</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1">
-        <v>90</v>
-      </c>
-      <c r="E3" s="4">
-        <v>37025</v>
-      </c>
-      <c r="F3" s="5">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>15873564</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>125</v>
-      </c>
-      <c r="E4" s="4">
-        <v>36845</v>
-      </c>
-      <c r="F4" s="5">
-        <v>14000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>25654758</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>65</v>
-      </c>
-      <c r="E5" s="4">
-        <v>34856</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>13655665</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4">
-        <v>32408</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>22334455</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4">
+        <v>36972</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15000000</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>90</v>
+      </c>
+      <c r="D11" s="4">
+        <v>37025</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>125</v>
+      </c>
+      <c r="D12" s="4">
+        <v>36845</v>
+      </c>
+      <c r="E12" s="5">
+        <v>14000000</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4">
+        <v>34856</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C14" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D14" s="4">
         <v>32408</v>
       </c>
-      <c r="F7" s="5">
+      <c r="E14" s="5">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4">
+        <v>32408</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>15873564</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E18" s="1">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G18" s="1">
         <v>50036</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>25654758</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E19" s="1">
         <v>18</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G19" s="1">
         <v>22022</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>12365451</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G20" s="1">
         <v>50051</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>13655665</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E21" s="1">
         <v>33</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G21" s="1">
         <v>44002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>22334455</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G22" s="1">
         <v>28028</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1462,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F23BDA-5A8B-4956-8681-B3A7260AAB3B}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1477,18 +1521,6 @@
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
@@ -1497,18 +1529,6 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>125</v>
-      </c>
-      <c r="E2" s="4">
-        <v>36972</v>
-      </c>
-      <c r="F2" s="5">
-        <v>15000000</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
@@ -1517,18 +1537,6 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1">
-        <v>90</v>
-      </c>
-      <c r="E3" s="4">
-        <v>37025</v>
-      </c>
-      <c r="F3" s="5">
-        <v>6000000</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -1537,18 +1545,6 @@
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>125</v>
-      </c>
-      <c r="E4" s="4">
-        <v>36845</v>
-      </c>
-      <c r="F4" s="5">
-        <v>14000000</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1557,18 +1553,6 @@
       <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>65</v>
-      </c>
-      <c r="E5" s="4">
-        <v>34856</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2500000</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -1577,18 +1561,6 @@
       <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4">
-        <v>32408</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1800000</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
@@ -1597,184 +1569,305 @@
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4">
+        <v>36972</v>
+      </c>
+      <c r="E10" s="5">
+        <v>15000000</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>90</v>
+      </c>
+      <c r="D11" s="4">
+        <v>37025</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6000000</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>125</v>
+      </c>
+      <c r="D12" s="4">
+        <v>36845</v>
+      </c>
+      <c r="E12" s="5">
+        <v>14000000</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4">
+        <v>34856</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2500000</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C14" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D14" s="4">
         <v>32408</v>
       </c>
-      <c r="F7" s="5">
+      <c r="E14" s="5">
         <v>1800000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50</v>
+      </c>
+      <c r="D15" s="4">
+        <v>32408</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>15873564</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E18" s="1">
         <v>25</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F18" s="1">
         <v>50036</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>25654758</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E19" s="1">
         <v>18</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F19" s="1">
         <v>22022</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>12365451</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F20" s="1">
         <v>50051</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>13655665</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E21" s="1">
         <v>33</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F21" s="1">
         <v>44002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>22334455</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F22" s="1">
         <v>28028</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>50036</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>22022</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
         <v>50051</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>44002</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
         <v>28028</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/ejercicio2_normalizacion.xlsx
+++ b/ejercicio2_normalizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricardo.morenoventas\Desktop\SQL\SQL_04052023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22984B68-CA2A-4737-98C8-404A80AE86D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD2C8A2-67FF-451C-9478-19D0FC46FDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{3FCA0B04-F99C-4B1D-911E-0273235ADDA9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="43">
   <si>
     <t>DNI</t>
   </si>
@@ -1506,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F23BDA-5A8B-4956-8681-B3A7260AAB3B}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1586,12 +1586,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="10"/>
@@ -1603,13 +1600,10 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>125</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="4">
         <v>36972</v>
       </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5">
         <v>15000000</v>
       </c>
       <c r="F10" s="10"/>
@@ -1621,13 +1615,10 @@
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1">
-        <v>90</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="C11" s="4">
         <v>37025</v>
       </c>
-      <c r="E11" s="5">
+      <c r="D11" s="5">
         <v>6000000</v>
       </c>
       <c r="F11" s="10"/>
@@ -1639,13 +1630,10 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1">
-        <v>125</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="C12" s="4">
         <v>36845</v>
       </c>
-      <c r="E12" s="5">
+      <c r="D12" s="5">
         <v>14000000</v>
       </c>
       <c r="F12" s="10"/>
@@ -1657,13 +1645,10 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
-        <v>65</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="4">
         <v>34856</v>
       </c>
-      <c r="E13" s="5">
+      <c r="D13" s="5">
         <v>2500000</v>
       </c>
       <c r="F13" s="10"/>
@@ -1675,13 +1660,10 @@
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1">
-        <v>50</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="C14" s="4">
         <v>32408</v>
       </c>
-      <c r="E14" s="5">
+      <c r="D14" s="5">
         <v>1800000</v>
       </c>
       <c r="F14" s="10"/>
@@ -1693,13 +1675,10 @@
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="4">
         <v>32408</v>
       </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5">
         <v>1800000</v>
       </c>
     </row>
@@ -1871,7 +1850,64 @@
         <v>32</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>